--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.16685900000001</v>
+        <v>54.57452499999999</v>
       </c>
       <c r="H2">
-        <v>138.500577</v>
+        <v>163.723575</v>
       </c>
       <c r="I2">
-        <v>0.2811430980659742</v>
+        <v>0.3198768244783329</v>
       </c>
       <c r="J2">
-        <v>0.2931275739284821</v>
+        <v>0.3316836188234569</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N2">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O2">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P2">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q2">
-        <v>9105.38924920749</v>
+        <v>7951.986947467265</v>
       </c>
       <c r="R2">
-        <v>81948.5032428674</v>
+        <v>71567.88252720539</v>
       </c>
       <c r="S2">
-        <v>0.1907212522262841</v>
+        <v>0.174180366580413</v>
       </c>
       <c r="T2">
-        <v>0.2008032200141599</v>
+        <v>0.1811371047355038</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.16685900000001</v>
+        <v>54.57452499999999</v>
       </c>
       <c r="H3">
-        <v>138.500577</v>
+        <v>163.723575</v>
       </c>
       <c r="I3">
-        <v>0.2811430980659742</v>
+        <v>0.3198768244783329</v>
       </c>
       <c r="J3">
-        <v>0.2931275739284821</v>
+        <v>0.3316836188234569</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.689053</v>
       </c>
       <c r="O3">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P3">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q3">
-        <v>41.38171023150901</v>
+        <v>48.917930058275</v>
       </c>
       <c r="R3">
-        <v>372.4353920835811</v>
+        <v>440.261370524475</v>
       </c>
       <c r="S3">
-        <v>0.0008667802527284115</v>
+        <v>0.001071498613641357</v>
       </c>
       <c r="T3">
-        <v>0.0009126002674628281</v>
+        <v>0.001114294110257816</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.16685900000001</v>
+        <v>54.57452499999999</v>
       </c>
       <c r="H4">
-        <v>138.500577</v>
+        <v>163.723575</v>
       </c>
       <c r="I4">
-        <v>0.2811430980659742</v>
+        <v>0.3198768244783329</v>
       </c>
       <c r="J4">
-        <v>0.2931275739284821</v>
+        <v>0.3316836188234569</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N4">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O4">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P4">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q4">
-        <v>1977.112449077959</v>
+        <v>2815.608639118883</v>
       </c>
       <c r="R4">
-        <v>17794.01204170163</v>
+        <v>25340.47775206995</v>
       </c>
       <c r="S4">
-        <v>0.04141254720254198</v>
+        <v>0.06167310738165967</v>
       </c>
       <c r="T4">
-        <v>0.04360171050781719</v>
+        <v>0.06413632219563774</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.16685900000001</v>
+        <v>54.57452499999999</v>
       </c>
       <c r="H5">
-        <v>138.500577</v>
+        <v>163.723575</v>
       </c>
       <c r="I5">
-        <v>0.2811430980659742</v>
+        <v>0.3198768244783329</v>
       </c>
       <c r="J5">
-        <v>0.2931275739284821</v>
+        <v>0.3316836188234569</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N5">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O5">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P5">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q5">
-        <v>391.4257601983591</v>
+        <v>127.62350905395</v>
       </c>
       <c r="R5">
-        <v>2348.554561190154</v>
+        <v>765.7410543236999</v>
       </c>
       <c r="S5">
-        <v>0.008198794043335801</v>
+        <v>0.002795466056238415</v>
       </c>
       <c r="T5">
-        <v>0.005754800876207241</v>
+        <v>0.001938077705520782</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.16685900000001</v>
+        <v>54.57452499999999</v>
       </c>
       <c r="H6">
-        <v>138.500577</v>
+        <v>163.723575</v>
       </c>
       <c r="I6">
-        <v>0.2811430980659742</v>
+        <v>0.3198768244783329</v>
       </c>
       <c r="J6">
-        <v>0.2931275739284821</v>
+        <v>0.3316836188234569</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N6">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O6">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P6">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q6">
-        <v>1906.988098825464</v>
+        <v>3659.439617221733</v>
       </c>
       <c r="R6">
-        <v>17162.89288942918</v>
+        <v>32934.9565549956</v>
       </c>
       <c r="S6">
-        <v>0.03994372434108395</v>
+        <v>0.0801563858463805</v>
       </c>
       <c r="T6">
-        <v>0.042055242262835</v>
+        <v>0.08335782007653673</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>292.369896</v>
       </c>
       <c r="I7">
-        <v>0.5934832917170205</v>
+        <v>0.5712210590658092</v>
       </c>
       <c r="J7">
-        <v>0.6187821030103189</v>
+        <v>0.5923050797071695</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N7">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O7">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P7">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q7">
-        <v>19221.15969112758</v>
+        <v>14200.28604203373</v>
       </c>
       <c r="R7">
-        <v>172990.4372201482</v>
+        <v>127802.5743783035</v>
       </c>
       <c r="S7">
-        <v>0.4026059232835429</v>
+        <v>0.3110431449005265</v>
       </c>
       <c r="T7">
-        <v>0.423888606269164</v>
+        <v>0.3234661622387634</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>292.369896</v>
       </c>
       <c r="I8">
-        <v>0.5934832917170205</v>
+        <v>0.5712210590658092</v>
       </c>
       <c r="J8">
-        <v>0.6187821030103189</v>
+        <v>0.5923050797071695</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.689053</v>
       </c>
       <c r="O8">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P8">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q8">
         <v>87.355349549832</v>
@@ -948,10 +948,10 @@
         <v>786.1981459484879</v>
       </c>
       <c r="S8">
-        <v>0.001829742935620112</v>
+        <v>0.001913432065201775</v>
       </c>
       <c r="T8">
-        <v>0.001926467391451222</v>
+        <v>0.00198985425971483</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>292.369896</v>
       </c>
       <c r="I9">
-        <v>0.5934832917170205</v>
+        <v>0.5712210590658092</v>
       </c>
       <c r="J9">
-        <v>0.6187821030103189</v>
+        <v>0.5923050797071695</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N9">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O9">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P9">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q9">
-        <v>4173.615544700784</v>
+        <v>5027.982103346383</v>
       </c>
       <c r="R9">
-        <v>37562.53990230706</v>
+        <v>45251.83893011745</v>
       </c>
       <c r="S9">
-        <v>0.08742044532206021</v>
+        <v>0.1101329481180256</v>
       </c>
       <c r="T9">
-        <v>0.09204169284141404</v>
+        <v>0.1145316418247103</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>292.369896</v>
       </c>
       <c r="I10">
-        <v>0.5934832917170205</v>
+        <v>0.5712210590658092</v>
       </c>
       <c r="J10">
-        <v>0.6187821030103189</v>
+        <v>0.5923050797071695</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N10">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O10">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P10">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q10">
-        <v>826.2861518686319</v>
+        <v>227.904088151376</v>
       </c>
       <c r="R10">
-        <v>4957.716911211792</v>
+        <v>1367.424528908256</v>
       </c>
       <c r="S10">
-        <v>0.01730736877562255</v>
+        <v>0.004992012421753895</v>
       </c>
       <c r="T10">
-        <v>0.01214818429007281</v>
+        <v>0.003460928441142516</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>292.369896</v>
       </c>
       <c r="I11">
-        <v>0.5934832917170205</v>
+        <v>0.5712210590658092</v>
       </c>
       <c r="J11">
-        <v>0.6187821030103189</v>
+        <v>0.5923050797071695</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N11">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O11">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P11">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q11">
-        <v>4025.585482772672</v>
+        <v>6534.855962590592</v>
       </c>
       <c r="R11">
-        <v>36230.26934495405</v>
+        <v>58813.70366331533</v>
       </c>
       <c r="S11">
-        <v>0.08431981140017474</v>
+        <v>0.1431395215603015</v>
       </c>
       <c r="T11">
-        <v>0.08877715221821689</v>
+        <v>0.1488564929428383</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2486306666666667</v>
+        <v>0.2623916666666666</v>
       </c>
       <c r="H12">
-        <v>0.745892</v>
+        <v>0.787175</v>
       </c>
       <c r="I12">
-        <v>0.001514090354314016</v>
+        <v>0.001537952242422826</v>
       </c>
       <c r="J12">
-        <v>0.001578632501817399</v>
+        <v>0.001594718736427266</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N12">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O12">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P12">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q12">
-        <v>49.03688594647423</v>
+        <v>38.23276718317777</v>
       </c>
       <c r="R12">
-        <v>441.331973518268</v>
+        <v>344.0949046486</v>
       </c>
       <c r="S12">
-        <v>0.001027125369055809</v>
+        <v>0.0008374507462528628</v>
       </c>
       <c r="T12">
-        <v>0.001081421598574291</v>
+        <v>0.000870898405560532</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2486306666666667</v>
+        <v>0.2623916666666666</v>
       </c>
       <c r="H13">
-        <v>0.745892</v>
+        <v>0.787175</v>
       </c>
       <c r="I13">
-        <v>0.001514090354314016</v>
+        <v>0.001537952242422826</v>
       </c>
       <c r="J13">
-        <v>0.001578632501817399</v>
+        <v>0.001594718736427266</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.689053</v>
       </c>
       <c r="O13">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P13">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q13">
-        <v>0.2228603466973333</v>
+        <v>0.2351950328083333</v>
       </c>
       <c r="R13">
-        <v>2.005743120276</v>
+        <v>2.116755295275</v>
       </c>
       <c r="S13">
-        <v>4.668027168349633E-06</v>
+        <v>5.151713314305133E-06</v>
       </c>
       <c r="T13">
-        <v>4.914789912379814E-06</v>
+        <v>5.357471984362647E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2486306666666667</v>
+        <v>0.2623916666666666</v>
       </c>
       <c r="H14">
-        <v>0.745892</v>
+        <v>0.787175</v>
       </c>
       <c r="I14">
-        <v>0.001514090354314016</v>
+        <v>0.001537952242422826</v>
       </c>
       <c r="J14">
-        <v>0.001578632501817399</v>
+        <v>0.001594718736427266</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N14">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O14">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P14">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q14">
-        <v>10.64769830430133</v>
+        <v>13.53730964217222</v>
       </c>
       <c r="R14">
-        <v>95.829284738712</v>
+        <v>121.83578677955</v>
       </c>
       <c r="S14">
-        <v>0.0002230264185686276</v>
+        <v>0.0002965213061292972</v>
       </c>
       <c r="T14">
-        <v>0.000234816112384115</v>
+        <v>0.0003083643233685261</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2486306666666667</v>
+        <v>0.2623916666666666</v>
       </c>
       <c r="H15">
-        <v>0.745892</v>
+        <v>0.787175</v>
       </c>
       <c r="I15">
-        <v>0.001514090354314016</v>
+        <v>0.001537952242422826</v>
       </c>
       <c r="J15">
-        <v>0.001578632501817399</v>
+        <v>0.001594718736427266</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N15">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O15">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P15">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q15">
-        <v>2.108015355964</v>
+        <v>0.61360763555</v>
       </c>
       <c r="R15">
-        <v>12.648092135784</v>
+        <v>3.6816458133</v>
       </c>
       <c r="S15">
-        <v>4.415443616940186E-05</v>
+        <v>1.344046508158323E-05</v>
       </c>
       <c r="T15">
-        <v>3.099236139034981E-05</v>
+        <v>9.318183516596935E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2486306666666667</v>
+        <v>0.2623916666666666</v>
       </c>
       <c r="H16">
-        <v>0.745892</v>
+        <v>0.787175</v>
       </c>
       <c r="I16">
-        <v>0.001514090354314016</v>
+        <v>0.001537952242422826</v>
       </c>
       <c r="J16">
-        <v>0.001578632501817399</v>
+        <v>0.001594718736427266</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N16">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O16">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P16">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q16">
-        <v>10.27004506276622</v>
+        <v>17.59440801782222</v>
       </c>
       <c r="R16">
-        <v>92.43040556489599</v>
+        <v>158.3496721604</v>
       </c>
       <c r="S16">
-        <v>0.0002151161033518278</v>
+        <v>0.0003853880116447773</v>
       </c>
       <c r="T16">
-        <v>0.0002264876395562635</v>
+        <v>0.0004007803519972479</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.141255</v>
+        <v>18.2194985</v>
       </c>
       <c r="H17">
-        <v>40.28251</v>
+        <v>36.438997</v>
       </c>
       <c r="I17">
-        <v>0.122654539474665</v>
+        <v>0.1067896664930707</v>
       </c>
       <c r="J17">
-        <v>0.08525534466220901</v>
+        <v>0.07382088004893059</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N17">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O17">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P17">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q17">
-        <v>3972.415943275382</v>
+        <v>2654.740728598177</v>
       </c>
       <c r="R17">
-        <v>23834.49565965229</v>
+        <v>15928.44437158906</v>
       </c>
       <c r="S17">
-        <v>0.08320612357468167</v>
+        <v>0.05814945576972561</v>
       </c>
       <c r="T17">
-        <v>0.05840306151397907</v>
+        <v>0.04031462430530062</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.141255</v>
+        <v>18.2194985</v>
       </c>
       <c r="H18">
-        <v>40.28251</v>
+        <v>36.438997</v>
       </c>
       <c r="I18">
-        <v>0.122654539474665</v>
+        <v>0.1067896664930707</v>
       </c>
       <c r="J18">
-        <v>0.08525534466220901</v>
+        <v>0.07382088004893059</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.689053</v>
       </c>
       <c r="O18">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P18">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q18">
-        <v>18.053634060505</v>
+        <v>16.3310656999735</v>
       </c>
       <c r="R18">
-        <v>108.32180436303</v>
+        <v>97.986394199841</v>
       </c>
       <c r="S18">
-        <v>0.0003781509610425821</v>
+        <v>0.0003577157544475336</v>
       </c>
       <c r="T18">
-        <v>0.0002654272653324328</v>
+        <v>0.0002480019126188898</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.141255</v>
+        <v>18.2194985</v>
       </c>
       <c r="H19">
-        <v>40.28251</v>
+        <v>36.438997</v>
       </c>
       <c r="I19">
-        <v>0.122654539474665</v>
+        <v>0.1067896664930707</v>
       </c>
       <c r="J19">
-        <v>0.08525534466220901</v>
+        <v>0.07382088004893059</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N19">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O19">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P19">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q19">
-        <v>862.5565365093101</v>
+        <v>939.9802815876736</v>
       </c>
       <c r="R19">
-        <v>5175.339219055861</v>
+        <v>5639.881689526042</v>
       </c>
       <c r="S19">
-        <v>0.01806708733219071</v>
+        <v>0.02058933334610768</v>
       </c>
       <c r="T19">
-        <v>0.01268143698454231</v>
+        <v>0.01427444552244768</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.141255</v>
+        <v>18.2194985</v>
       </c>
       <c r="H20">
-        <v>40.28251</v>
+        <v>36.438997</v>
       </c>
       <c r="I20">
-        <v>0.122654539474665</v>
+        <v>0.1067896664930707</v>
       </c>
       <c r="J20">
-        <v>0.08525534466220901</v>
+        <v>0.07382088004893059</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N20">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O20">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P20">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q20">
-        <v>170.767650658755</v>
+        <v>42.606625193223</v>
       </c>
       <c r="R20">
-        <v>683.07060263502</v>
+        <v>170.426500772892</v>
       </c>
       <c r="S20">
-        <v>0.003576894878625106</v>
+        <v>0.0009332557565720767</v>
       </c>
       <c r="T20">
-        <v>0.001673767928373518</v>
+        <v>0.0004313466017171851</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.141255</v>
+        <v>18.2194985</v>
       </c>
       <c r="H21">
-        <v>40.28251</v>
+        <v>36.438997</v>
       </c>
       <c r="I21">
-        <v>0.122654539474665</v>
+        <v>0.1067896664930707</v>
       </c>
       <c r="J21">
-        <v>0.08525534466220901</v>
+        <v>0.07382088004893059</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N21">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O21">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P21">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q21">
-        <v>831.9633263421467</v>
+        <v>1221.690058077683</v>
       </c>
       <c r="R21">
-        <v>4991.77995805288</v>
+        <v>7330.140348466096</v>
       </c>
       <c r="S21">
-        <v>0.01742628272812492</v>
+        <v>0.02675990586621782</v>
       </c>
       <c r="T21">
-        <v>0.01223165096998169</v>
+        <v>0.0185524617068462</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1978713333333334</v>
+        <v>0.09801566666666667</v>
       </c>
       <c r="H22">
-        <v>0.5936140000000001</v>
+        <v>0.294047</v>
       </c>
       <c r="I22">
-        <v>0.001204980388026363</v>
+        <v>0.0005744977203642196</v>
       </c>
       <c r="J22">
-        <v>0.001256345897172558</v>
+        <v>0.0005957026840159155</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N22">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O22">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P22">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q22">
-        <v>39.02573296701179</v>
+        <v>14.28174229607378</v>
       </c>
       <c r="R22">
-        <v>351.231596703106</v>
+        <v>128.535680664664</v>
       </c>
       <c r="S22">
-        <v>0.0008174320127132278</v>
+        <v>0.0003128273631446827</v>
       </c>
       <c r="T22">
-        <v>0.0008606433650127358</v>
+        <v>0.000325321641896475</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1978713333333334</v>
+        <v>0.09801566666666667</v>
       </c>
       <c r="H23">
-        <v>0.5936140000000001</v>
+        <v>0.294047</v>
       </c>
       <c r="I23">
-        <v>0.001204980388026363</v>
+        <v>0.0005744977203642196</v>
       </c>
       <c r="J23">
-        <v>0.001256345897172558</v>
+        <v>0.0005957026840159155</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>2.689053</v>
       </c>
       <c r="O23">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P23">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q23">
-        <v>0.1773621675046667</v>
+        <v>0.08785644083233334</v>
       </c>
       <c r="R23">
-        <v>1.596259507542</v>
+        <v>0.790707967491</v>
       </c>
       <c r="S23">
-        <v>3.715023461188348E-06</v>
+        <v>1.924407971456768E-06</v>
       </c>
       <c r="T23">
-        <v>3.91140821867969E-06</v>
+        <v>2.001268542047046E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1978713333333334</v>
+        <v>0.09801566666666667</v>
       </c>
       <c r="H24">
-        <v>0.5936140000000001</v>
+        <v>0.294047</v>
       </c>
       <c r="I24">
-        <v>0.001204980388026363</v>
+        <v>0.0005744977203642196</v>
       </c>
       <c r="J24">
-        <v>0.001256345897172558</v>
+        <v>0.0005957026840159155</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N24">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O24">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P24">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q24">
-        <v>8.47391147942267</v>
+        <v>5.056823817260222</v>
       </c>
       <c r="R24">
-        <v>76.26520331480401</v>
+        <v>45.511414355342</v>
       </c>
       <c r="S24">
-        <v>0.000177494334879845</v>
+        <v>0.0001107646971809336</v>
       </c>
       <c r="T24">
-        <v>0.000186877097135757</v>
+        <v>0.0001151886228520278</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1978713333333334</v>
+        <v>0.09801566666666667</v>
       </c>
       <c r="H25">
-        <v>0.5936140000000001</v>
+        <v>0.294047</v>
       </c>
       <c r="I25">
-        <v>0.001204980388026363</v>
+        <v>0.0005744977203642196</v>
       </c>
       <c r="J25">
-        <v>0.001256345897172558</v>
+        <v>0.0005957026840159155</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N25">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O25">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P25">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q25">
-        <v>1.677652297538</v>
+        <v>0.229211400782</v>
       </c>
       <c r="R25">
-        <v>10.065913785228</v>
+        <v>1.375268404692</v>
       </c>
       <c r="S25">
-        <v>3.514006246516026E-05</v>
+        <v>5.020647804928136E-06</v>
       </c>
       <c r="T25">
-        <v>2.466509845174786E-05</v>
+        <v>3.48078115857945E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1978713333333334</v>
+        <v>0.09801566666666667</v>
       </c>
       <c r="H26">
-        <v>0.5936140000000001</v>
+        <v>0.294047</v>
       </c>
       <c r="I26">
-        <v>0.001204980388026363</v>
+        <v>0.0005744977203642196</v>
       </c>
       <c r="J26">
-        <v>0.001256345897172558</v>
+        <v>0.0005957026840159155</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N26">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O26">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P26">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q26">
-        <v>8.17335824742578</v>
+        <v>6.572341467166222</v>
       </c>
       <c r="R26">
-        <v>73.56022422683201</v>
+        <v>59.151073204496</v>
       </c>
       <c r="S26">
-        <v>0.0001711989545069419</v>
+        <v>0.0001439606042622185</v>
       </c>
       <c r="T26">
-        <v>0.0001802489283536381</v>
+        <v>0.000149710369566786</v>
       </c>
     </row>
   </sheetData>
